--- a/Docs/list_of_exercises.xlsx
+++ b/Docs/list_of_exercises.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven Widner\Desktop\DSU\Fall18\SoftwareEngineering\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lroe.EANDRCLEANERS\codebase\CSC470-WorkoutPlanner\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BFFE24-95D0-4170-85CB-E1D996BB73F9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15645" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Exercises" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="216">
   <si>
     <t>Cardio</t>
   </si>
@@ -377,12 +379,312 @@
   </si>
   <si>
     <t>barbell thrust</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Leg Raise Machine</t>
+  </si>
+  <si>
+    <t>Leg Press Machine</t>
+  </si>
+  <si>
+    <t>Squat</t>
+  </si>
+  <si>
+    <t>Lunges</t>
+  </si>
+  <si>
+    <t>Burpee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step Macine </t>
+  </si>
+  <si>
+    <t>Mountain Climbers</t>
+  </si>
+  <si>
+    <t>Deadlift</t>
+  </si>
+  <si>
+    <t>High Knees</t>
+  </si>
+  <si>
+    <t>Biceps Curl</t>
+  </si>
+  <si>
+    <t>Pull Ups</t>
+  </si>
+  <si>
+    <t>Cable Biceps Curl</t>
+  </si>
+  <si>
+    <t>Machine Curl Up</t>
+  </si>
+  <si>
+    <t>Crunches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Sit Up </t>
+  </si>
+  <si>
+    <t>Plank</t>
+  </si>
+  <si>
+    <t>Lying Touch Toe</t>
+  </si>
+  <si>
+    <t>Lying Scissors Kick</t>
+  </si>
+  <si>
+    <t>Lying Leg Raise</t>
+  </si>
+  <si>
+    <t>Ab Machine</t>
+  </si>
+  <si>
+    <t>Rollout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pull Ins </t>
+  </si>
+  <si>
+    <t>Cable Abduction</t>
+  </si>
+  <si>
+    <t>Abduction Machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standing Abduction </t>
+  </si>
+  <si>
+    <t>Shrugs</t>
+  </si>
+  <si>
+    <t>High Pull</t>
+  </si>
+  <si>
+    <t>Snatch</t>
+  </si>
+  <si>
+    <t>Deadlit To Shrug</t>
+  </si>
+  <si>
+    <t>Pushdown</t>
+  </si>
+  <si>
+    <t>Extensions</t>
+  </si>
+  <si>
+    <t>Kickbacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bench, Narrow </t>
+  </si>
+  <si>
+    <t>Dips</t>
+  </si>
+  <si>
+    <t>Dip Machine</t>
+  </si>
+  <si>
+    <t>Pushup Narrow</t>
+  </si>
+  <si>
+    <t>Reverse Cable Fly</t>
+  </si>
+  <si>
+    <t>Hamstrings Machine</t>
+  </si>
+  <si>
+    <t>Pullbacks</t>
+  </si>
+  <si>
+    <t>Cable Leg Curl</t>
+  </si>
+  <si>
+    <t>Squats</t>
+  </si>
+  <si>
+    <t>Clean And Jerk</t>
+  </si>
+  <si>
+    <t>Kettelbell Handed Swing</t>
+  </si>
+  <si>
+    <t>Flutter Kicks</t>
+  </si>
+  <si>
+    <t>Leg Raise</t>
+  </si>
+  <si>
+    <t>Machine Calf Press</t>
+  </si>
+  <si>
+    <t>Seated Calf Raise</t>
+  </si>
+  <si>
+    <t>Running(Uphill)</t>
+  </si>
+  <si>
+    <t>Cable Pull Downs</t>
+  </si>
+  <si>
+    <t>Machine Row</t>
+  </si>
+  <si>
+    <t>Dumbbell Row</t>
+  </si>
+  <si>
+    <t>Dumbbell Fly</t>
+  </si>
+  <si>
+    <t>Dumbbell Pullover</t>
+  </si>
+  <si>
+    <t>Reverse Fly</t>
+  </si>
+  <si>
+    <t>Hyperextension</t>
+  </si>
+  <si>
+    <t>Superman</t>
+  </si>
+  <si>
+    <t>Cable Pull Down</t>
+  </si>
+  <si>
+    <t>Row Machine</t>
+  </si>
+  <si>
+    <t>Deadlit</t>
+  </si>
+  <si>
+    <t>Kick Backs</t>
+  </si>
+  <si>
+    <t>Hip Extension</t>
+  </si>
+  <si>
+    <t>Barbell Thrust</t>
+  </si>
+  <si>
+    <t>Shoulder Press</t>
+  </si>
+  <si>
+    <t>Lateral Raise</t>
+  </si>
+  <si>
+    <t>Front Raise</t>
+  </si>
+  <si>
+    <t>Shoulder High Pull</t>
+  </si>
+  <si>
+    <t>Scarecrow</t>
+  </si>
+  <si>
+    <t>Cable Rotation</t>
+  </si>
+  <si>
+    <t>Barbell Snatch</t>
+  </si>
+  <si>
+    <t>Clean &amp; Jerk</t>
+  </si>
+  <si>
+    <t>Russian Swing</t>
+  </si>
+  <si>
+    <t>Cable Pull High &amp; Low</t>
+  </si>
+  <si>
+    <t>Bench Press</t>
+  </si>
+  <si>
+    <t>Incline Bench Press</t>
+  </si>
+  <si>
+    <t>Decline Bench Press</t>
+  </si>
+  <si>
+    <t>Fly Machine</t>
+  </si>
+  <si>
+    <t>Cable Crossover</t>
+  </si>
+  <si>
+    <t>Push Ups</t>
+  </si>
+  <si>
+    <t>Cable Pullover</t>
+  </si>
+  <si>
+    <t>Cable Lats Chest Twist</t>
+  </si>
+  <si>
+    <t>Dumbbell Wrist Curl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cable Wrist Curl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Side Bend </t>
+  </si>
+  <si>
+    <t>Torso Twist Machine</t>
+  </si>
+  <si>
+    <t>Weighted Side Bend</t>
+  </si>
+  <si>
+    <t>Side Bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oblique Leg Raise </t>
+  </si>
+  <si>
+    <t>Russian Twist</t>
+  </si>
+  <si>
+    <t>Side Plank</t>
+  </si>
+  <si>
+    <t>Cross Body Crunch</t>
+  </si>
+  <si>
+    <t>Abductors</t>
+  </si>
+  <si>
+    <t>Lower Back</t>
+  </si>
+  <si>
+    <t>NeedsFreeWeights</t>
+  </si>
+  <si>
+    <t>NeedsMachine</t>
+  </si>
+  <si>
+    <t>Hanging Leg Raise</t>
+  </si>
+  <si>
+    <t>ImagePath</t>
+  </si>
+  <si>
+    <t>BaseRepititions</t>
+  </si>
+  <si>
+    <t>MuscleGroup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,14 +723,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -737,11 +1052,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,4 +1489,1668 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E8B167-5413-492C-B04C-1D9F222C746F}">
+  <dimension ref="A1:G96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>208</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>208</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>179</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66">
+        <v>10</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>180</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>182</v>
+      </c>
+      <c r="D71">
+        <v>10</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>185</v>
+      </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>186</v>
+      </c>
+      <c r="D75">
+        <v>10</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>187</v>
+      </c>
+      <c r="D76">
+        <v>10</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>189</v>
+      </c>
+      <c r="D77">
+        <v>10</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>190</v>
+      </c>
+      <c r="D78">
+        <v>10</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>191</v>
+      </c>
+      <c r="D79">
+        <v>10</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>192</v>
+      </c>
+      <c r="D80">
+        <v>10</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81">
+        <v>10</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>193</v>
+      </c>
+      <c r="D82">
+        <v>10</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>194</v>
+      </c>
+      <c r="D83">
+        <v>10</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>195</v>
+      </c>
+      <c r="D84">
+        <v>10</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>196</v>
+      </c>
+      <c r="D85">
+        <v>10</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>197</v>
+      </c>
+      <c r="D86">
+        <v>10</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>198</v>
+      </c>
+      <c r="D87">
+        <v>10</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>199</v>
+      </c>
+      <c r="D88">
+        <v>10</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>200</v>
+      </c>
+      <c r="D89">
+        <v>10</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>201</v>
+      </c>
+      <c r="D90">
+        <v>10</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>202</v>
+      </c>
+      <c r="D91">
+        <v>10</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>203</v>
+      </c>
+      <c r="D92">
+        <v>10</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>204</v>
+      </c>
+      <c r="D93">
+        <v>10</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>205</v>
+      </c>
+      <c r="D94">
+        <v>10</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>206</v>
+      </c>
+      <c r="D95">
+        <v>10</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>207</v>
+      </c>
+      <c r="D96">
+        <v>10</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>